--- a/WGRDBESstockCoord/format/SCF/SCF_v1.xlsx
+++ b/WGRDBESstockCoord/format/SCF/SCF_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Rstudio\D1SCI\VISBIO\RDBESstockCoord\WGRDBESstockCoord\format\SCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF58C02-6152-4E30-AC4C-0F9479D4648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026344FC-36B9-4AE8-A0AA-392D67BF5FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="103">
   <si>
     <t>year</t>
   </si>
@@ -139,9 +139,6 @@
     <t>//vocab.ices.dk/?ref=1610</t>
   </si>
   <si>
-    <t>IC_Stock</t>
-  </si>
-  <si>
     <t>https://vocab.ices.dk/?codetypeguid=d7fed61c-fb1a-4244-a9bb-c85355466ee8</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t>Fleet can differ between WG's, e.g., WGBFAS (active/passive) and WGMIXFISH (derivative of metier6), so by including WG it would be possible for the format to hold data for the same stock, but with different fleets. This may not be super relevant for the census catches, where there is a stock, but it would be very relevant for the effort table where a lot of WG's can cover a certain area and therefore have multiple fleet definitions.</t>
-  </si>
-  <si>
-    <t>Guidance on how to fill this in for landings and BMS. Only NA if domainCatch is not NA.</t>
   </si>
   <si>
     <t>seasonType</t>
@@ -248,9 +242,6 @@
     <t>the estimated variance</t>
   </si>
   <si>
-    <t>link to code list</t>
-  </si>
-  <si>
     <t>Henrik, are anyone using C in IC? And can you use Catch in CL (I guess you can)? Very few are using Catch, so we exclude Catch from this version and look at it later. RegDis is also deleted from the code list. If you have RegDis in the RDBES CL, then it should be declared as catchCategory = 'Dis' and variableType = OfficialWeigth</t>
   </si>
   <si>
@@ -396,12 +387,111 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Codes in blue are missing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current ICES vocabulary list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only the codes needed for RCEF functionality have been included from each list. To avoid misuse, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>certain existing codes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should also be explicitly flagged as invalid for RCEF.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Code list needed </t>
+      <t xml:space="preserve"> A completely new list is higlighted in purple</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ValueUnitOrScale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Agewr, Ageyear, Lengthmm, </t>
     </r>
     <r>
       <rPr>
@@ -411,50 +501,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WGFleet, WGFleetList, Metier6, Metier6List, Metier5, Metier5List, Metier4, Metier4List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Codes in blue are missing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>from the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>Widthmm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -463,55 +523,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>current ICES vocabulary list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Only the codes needed for RCEF functionality have been included from each list. To avoid misuse, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>certain existing codes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should also be explicitly flagged as invalid for RCEF.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A completely new list is higlighted in purple</t>
+      <t>BiologicalMeasurementType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only need Sex and Maturity)</t>
     </r>
   </si>
   <si>
@@ -523,85 +544,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CatchCategory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (BMS, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Dis, Lan, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RegDis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DisBMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ValueUnitOrScale</t>
+      <t>BiologicalMeasurementType</t>
     </r>
     <r>
       <rPr>
@@ -611,203 +554,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Agewr, Ageyear, Lengthmm, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Widthmm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BiologicalMeasurementType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only need Sex and Maturity)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BiologicalMeasurementType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only need the ones with length, age and width)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BiologicalMeasurementType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. We only</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> need WeightLive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + Number</t>
-    </r>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
     <t>FleetType!A1</t>
   </si>
   <si>
-    <t>For landings it should always be WGfleet</t>
-  </si>
-  <si>
     <t>For landings it should always be ICESArea</t>
   </si>
   <si>
     <t>IC_FleetName, GearType, Metier5_FishingActivity &amp; Metier6_FishingActivity</t>
   </si>
   <si>
-    <t>If fleetType = 'WGfleet' then code should be in IC_FleetName. 
-If fleetType = 'WGFleetList' then codes should be in IC_FleetName.
-If fleetType = 'metier6' then code should be in Metier6_FishingActivity.
-If fleetType = 'metier6List' then codes should be in Metier6_FishingActivity.
-if fleetType = 'metier5' then code sould be in Metier5_FishingActivity.
-if fleetType = 'metier5List' then codes sould be in Metier5_FishingActivity.
-if fleetType = 'metier4' then code sould be in GearType.
-if fleetType = 'metier4List' then codes sould be in GearType.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AreaType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">? (ICESArea, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ICESAreaList, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>StockArea</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>ices_StockCode</t>
-  </si>
-  <si>
     <t>ICESArea</t>
   </si>
   <si>
-    <t>Quater &amp; Month &amp; Year</t>
-  </si>
-  <si>
-    <t>Code list needed WGWeight, OfficialWeight, WGNumber, OfficialNumber</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Same definition as in RDBES CL. The estimated scientific live weight in kg. Scientific weight is equal to reporting category 'A' in InterCatch, so it includes both reported, non-reported and misreported. </t>
     </r>
@@ -834,46 +599,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TimeUnit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Quarter, Month, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Year) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>| IC_SeasonType</t>
-    </r>
-  </si>
-  <si>
     <t>distributionType</t>
   </si>
   <si>
@@ -884,40 +609,6 @@
   </si>
   <si>
     <t>If discard is provided there should be row with landings - this is a weak check</t>
-  </si>
-  <si>
-    <t>if variableType %in% ("WGWeight", "OfficialWeight") then variableUnit should equal c("t", "kg")
-if variableType %in% ("WGNumber", "OfficialNumber") then variableUnit should equal c("pcs.", "1000_pcs.")</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MUNIT (t, kg, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pcs., 1000_pcs.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MUNIT (t, kg, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pcs., 1000_pcc.)</t>
-    </r>
   </si>
   <si>
     <t>If seasonType = 'Month' then code should be in Month
@@ -925,7 +616,360 @@
 if seasonType = 'Year' then code should be in Year</t>
   </si>
   <si>
-    <t>&gt;=0</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Code list needed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WGFleet, Metier6, Metier5, Metier4</t>
+    </r>
+  </si>
+  <si>
+    <t>WGFleet codes are defined by the AWG groups</t>
+  </si>
+  <si>
+    <t>Currently only ICESArea can be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave empthy </t>
+  </si>
+  <si>
+    <t>ICES_StockCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stocks  that are in SID </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TimeUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Quarter, Month, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Year) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+  </si>
+  <si>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>WGValue - the final tonnage | number going into the assessment. These can be estimated or coming from official records. It is importaint that the SC can pick this one and know that this is the correct and final value. For weight it would be similar to CATON in IC.</t>
+  </si>
+  <si>
+    <t>Code list needed WeightLive + Number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MUNIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (t, kg, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pcs., 1000_pcs.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quater</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DataBasis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (WGValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Official,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimated, Measured, NotApplicable, Unknown)</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>if variableType =  WeightLive then variableUnit should equal c("t", "kg")
+if variableType =  Number then variableUnit should equal c("pcs.", "1000_pcs.")</t>
+  </si>
+  <si>
+    <t>If fleetType = 'WGfleet' then code should be in IC_FleetName. 
+If fleetType = 'metier6' then code should be in Metier6_FishingActivity.
+if fleetType = 'metier5' then code sould be in Metier5_FishingActivity.
+if fleetType = 'metier4' then code sould be in GearType.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AreaType(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FAOMajorFishingArea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ICESArea, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GFCM_GSAs, HELCOMSubBasin, NAFOArea, NEAFC_RA,  OSPARRegion)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BiologicalMeasurementType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (we would like to have some of the codes as invalid for the RCEF. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MUNIT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(t, kg, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pcs., 1000_pcc.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1038,14 +1082,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1065,8 +1101,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,12 +1119,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1142,7 +1179,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1181,12 +1217,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1196,27 +1226,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1579,266 +1612,266 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="L5" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="L6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="L7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="L8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="L9" s="18"/>
+      <c r="F9" s="21"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="L10" s="18"/>
+      <c r="F10" s="21"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="38" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="38" t="s">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="L14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="L15" s="18"/>
+      <c r="F15" s="21"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>49</v>
+      <c r="A16" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>49</v>
+      <c r="C16" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>59</v>
+      <c r="A17" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>59</v>
+      <c r="C17" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>92</v>
+      <c r="C18" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>66</v>
+      <c r="A19" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>93</v>
+      <c r="C19" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>94</v>
+      <c r="C20" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="C21" s="20" t="s">
-        <v>41</v>
+      <c r="A21" s="17"/>
+      <c r="C21" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
-        <v>64</v>
+      <c r="C22" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1846,8 +1879,8 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
-        <v>65</v>
+      <c r="C23" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1855,86 +1888,86 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="20" t="s">
-        <v>66</v>
+      <c r="C25" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
-        <v>51</v>
+      <c r="B26" s="17"/>
+      <c r="C26" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
-        <v>60</v>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
-      <c r="C28" s="20" t="s">
-        <v>50</v>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="18"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="18"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="18"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G78" s="12"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79" s="12"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="18"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="18"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="18"/>
+      <c r="G82" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1943,11 +1976,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1993,7 @@
     <col min="6" max="6" width="36.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="77.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="77.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="80.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="104.42578125" style="7" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" style="6" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="6"/>
@@ -1983,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>17</v>
@@ -1991,8 +2024,8 @@
       <c r="H1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>79</v>
+      <c r="I1" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>28</v>
@@ -2041,13 +2074,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2066,11 +2099,14 @@
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>86</v>
+      <c r="F4" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2096,7 +2132,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2116,24 +2152,24 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>29</v>
@@ -2145,7 +2181,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2153,7 +2189,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
@@ -2164,19 +2200,19 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>88</v>
+      <c r="F8" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
@@ -2187,11 +2223,14 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>85</v>
+      <c r="F9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2199,7 +2238,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
@@ -2210,10 +2249,10 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="F10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -2231,94 +2270,90 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>80</v>
+      <c r="F12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>83</v>
+      <c r="F13" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>29</v>
@@ -2329,41 +2364,59 @@
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="24"/>
+      <c r="H17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2381,7 +2434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,10 +2524,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2495,11 +2548,11 @@
       <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2527,7 +2580,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7"/>
     </row>
@@ -2548,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>32</v>
@@ -2556,12 +2609,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>29</v>
@@ -2573,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2584,7 +2637,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
@@ -2595,21 +2648,21 @@
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>88</v>
+      <c r="F8" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
@@ -2620,13 +2673,13 @@
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="F9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2634,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>29</v>
@@ -2645,14 +2698,14 @@
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="F10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -2668,11 +2721,11 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>27</v>
@@ -2680,12 +2733,12 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
@@ -2696,24 +2749,24 @@
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="F12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>29</v>
@@ -2724,13 +2777,13 @@
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>83</v>
+      <c r="F13" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J13" s="7"/>
     </row>
@@ -2739,7 +2792,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
@@ -2748,14 +2801,12 @@
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="F14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -2764,7 +2815,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -2773,14 +2824,14 @@
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>75</v>
+      <c r="F15" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -2789,7 +2840,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
@@ -2801,7 +2852,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -2810,7 +2861,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
@@ -2822,16 +2873,16 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
@@ -2840,33 +2891,33 @@
       <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>76</v>
+      <c r="F18" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="17" t="s">
-        <v>69</v>
+      <c r="H18" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -2880,12 +2931,12 @@
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="23"/>
+      <c r="F20" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="22"/>
       <c r="H20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -2894,15 +2945,15 @@
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -2911,8 +2962,8 @@
       <c r="E22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>98</v>
+      <c r="F22" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
@@ -2921,10 +2972,10 @@
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
@@ -2932,19 +2983,19 @@
       <c r="E23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>53</v>
+      <c r="F23" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
@@ -2959,10 +3010,10 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>7</v>
@@ -2971,20 +3022,20 @@
       <c r="F25" s="7"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
@@ -3178,6 +3229,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -3187,15 +3247,6 @@
     <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3218,6 +3269,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3225,12 +3284,4 @@
     <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>